--- a/tests/select_hg38_sites/dualDetection_test/output/core/sites.xlsx
+++ b/tests/select_hg38_sites/dualDetection_test/output/core/sites.xlsx
@@ -771,9 +771,7 @@
       <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
         <v>64</v>
       </c>
@@ -859,9 +857,7 @@
       <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
+      <c r="K3"/>
       <c r="L3" t="s">
         <v>64</v>
       </c>
@@ -947,9 +943,7 @@
       <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4"/>
       <c r="L4" t="s">
         <v>64</v>
       </c>
@@ -1035,9 +1029,7 @@
       <c r="J5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="s">
         <v>64</v>
       </c>
@@ -1123,9 +1115,7 @@
       <c r="J6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6"/>
       <c r="L6" t="s">
         <v>64</v>
       </c>
@@ -1211,9 +1201,7 @@
       <c r="J7" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7"/>
       <c r="L7" t="s">
         <v>64</v>
       </c>
@@ -1299,9 +1287,7 @@
       <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8"/>
       <c r="L8" t="s">
         <v>64</v>
       </c>
@@ -1387,9 +1373,7 @@
       <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9"/>
       <c r="L9" t="s">
         <v>64</v>
       </c>
@@ -1475,9 +1459,7 @@
       <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10"/>
       <c r="L10" t="s">
         <v>64</v>
       </c>
@@ -1563,9 +1545,7 @@
       <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K11"/>
       <c r="L11" t="s">
         <v>64</v>
       </c>
